--- a/team_specific_matrix/Omaha_B.xlsx
+++ b/team_specific_matrix/Omaha_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1846846846846847</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C2">
-        <v>0.5585585585585585</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03603603603603604</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1441441441441441</v>
+        <v>0.1413793103448276</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07657657657657657</v>
+        <v>0.06551724137931035</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04411764705882353</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04411764705882353</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7426470588235294</v>
+        <v>0.7336956521739131</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1691176470588235</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03703703703703703</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6296296296296297</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04419889502762431</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005524861878453038</v>
+        <v>0.00411522633744856</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06077348066298342</v>
+        <v>0.06584362139917696</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2707182320441989</v>
+        <v>0.2510288065843622</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01657458563535912</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1988950276243094</v>
+        <v>0.1769547325102881</v>
       </c>
       <c r="R6">
-        <v>0.07734806629834254</v>
+        <v>0.07818930041152264</v>
       </c>
       <c r="S6">
-        <v>0.3259668508287293</v>
+        <v>0.3580246913580247</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09278350515463918</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02577319587628866</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="E7">
-        <v>0.005154639175257732</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="F7">
-        <v>0.03092783505154639</v>
+        <v>0.03461538461538462</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1391752577319588</v>
+        <v>0.1192307692307692</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1649484536082474</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="R7">
-        <v>0.09278350515463918</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.4484536082474227</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1108179419525066</v>
+        <v>0.1146881287726358</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01319261213720317</v>
+        <v>0.01006036217303823</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0712401055408971</v>
+        <v>0.07847082494969819</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.079155672823219</v>
+        <v>0.08853118712273642</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0158311345646438</v>
+        <v>0.01609657947686117</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1662269129287599</v>
+        <v>0.1670020120724346</v>
       </c>
       <c r="R8">
-        <v>0.1319261213720317</v>
+        <v>0.1207243460764588</v>
       </c>
       <c r="S8">
-        <v>0.4116094986807388</v>
+        <v>0.4044265593561368</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1221374045801527</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01526717557251908</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05343511450381679</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06106870229007633</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02290076335877863</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1679389312977099</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="R9">
-        <v>0.1145038167938931</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="S9">
-        <v>0.4427480916030535</v>
+        <v>0.4069767441860465</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01505376344086022</v>
+        <v>0.01609010458567981</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0008045052292839903</v>
       </c>
       <c r="F10">
-        <v>0.07311827956989247</v>
+        <v>0.07401448109412712</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1365591397849462</v>
+        <v>0.1263073209975865</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02043010752688172</v>
+        <v>0.02333065164923572</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1731182795698925</v>
+        <v>0.1922767497988737</v>
       </c>
       <c r="R10">
-        <v>0.110752688172043</v>
+        <v>0.09814963797264682</v>
       </c>
       <c r="S10">
-        <v>0.3709677419354839</v>
+        <v>0.3716814159292036</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1254752851711027</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09125475285171103</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
-        <v>0.1520912547528517</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L11">
-        <v>0.6273764258555133</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003802281368821293</v>
+        <v>0.002777777777777778</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7724550898203593</v>
+        <v>0.7465437788018433</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1497005988023952</v>
+        <v>0.1751152073732719</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02395209580838323</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05389221556886228</v>
+        <v>0.05069124423963134</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7555555555555555</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04458598726114649</v>
+        <v>0.0330188679245283</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2420382165605096</v>
+        <v>0.2122641509433962</v>
       </c>
       <c r="I15">
-        <v>0.01273885350318471</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="J15">
-        <v>0.3630573248407643</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="K15">
-        <v>0.07643312101910828</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01273885350318471</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04458598726114649</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2038216560509554</v>
+        <v>0.2216981132075472</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0136986301369863</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.136986301369863</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="I16">
-        <v>0.07534246575342465</v>
+        <v>0.07179487179487179</v>
       </c>
       <c r="J16">
-        <v>0.4246575342465753</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="K16">
-        <v>0.1643835616438356</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0136986301369863</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N16">
-        <v>0.00684931506849315</v>
+        <v>0.005128205128205128</v>
       </c>
       <c r="O16">
-        <v>0.0410958904109589</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1232876712328767</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01612903225806452</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2096774193548387</v>
+        <v>0.1963470319634703</v>
       </c>
       <c r="I17">
-        <v>0.07741935483870968</v>
+        <v>0.08447488584474885</v>
       </c>
       <c r="J17">
-        <v>0.4290322580645161</v>
+        <v>0.4223744292237443</v>
       </c>
       <c r="K17">
-        <v>0.1032258064516129</v>
+        <v>0.1118721461187215</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02903225806451613</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05806451612903226</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07741935483870968</v>
+        <v>0.07990867579908675</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01522842639593909</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2131979695431472</v>
+        <v>0.1991701244813278</v>
       </c>
       <c r="I18">
-        <v>0.08629441624365482</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="J18">
-        <v>0.4314720812182741</v>
+        <v>0.4439834024896265</v>
       </c>
       <c r="K18">
-        <v>0.1015228426395939</v>
+        <v>0.1078838174273859</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01015228426395939</v>
+        <v>0.02074688796680498</v>
       </c>
       <c r="N18">
-        <v>0.005076142131979695</v>
+        <v>0.004149377593360996</v>
       </c>
       <c r="O18">
-        <v>0.06598984771573604</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07106598984771574</v>
+        <v>0.06639004149377593</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02127659574468085</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2265957446808511</v>
+        <v>0.2355769230769231</v>
       </c>
       <c r="I19">
-        <v>0.08617021276595745</v>
+        <v>0.08253205128205128</v>
       </c>
       <c r="J19">
-        <v>0.3265957446808511</v>
+        <v>0.3349358974358974</v>
       </c>
       <c r="K19">
-        <v>0.1340425531914894</v>
+        <v>0.1290064102564103</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03404255319148936</v>
+        <v>0.03044871794871795</v>
       </c>
       <c r="N19">
-        <v>0.001063829787234043</v>
+        <v>0.001602564102564103</v>
       </c>
       <c r="O19">
-        <v>0.06808510638297872</v>
+        <v>0.06490384615384616</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1021276595744681</v>
+        <v>0.1017628205128205</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Omaha_B.xlsx
+++ b/team_specific_matrix/Omaha_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1724137931034483</v>
+        <v>0.1682847896440129</v>
       </c>
       <c r="C2">
-        <v>0.5862068965517241</v>
+        <v>0.598705501618123</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03448275862068965</v>
+        <v>0.03236245954692556</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1413793103448276</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06551724137931035</v>
+        <v>0.06472491909385113</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04347826086956522</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7336956521739131</v>
+        <v>0.725</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1793478260869565</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.025</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3055555555555556</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04938271604938271</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00411522633744856</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06584362139917696</v>
+        <v>0.07307692307692308</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2510288065843622</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01646090534979424</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1769547325102881</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="R6">
-        <v>0.07818930041152264</v>
+        <v>0.08846153846153847</v>
       </c>
       <c r="S6">
-        <v>0.3580246913580247</v>
+        <v>0.3615384615384615</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09615384615384616</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02307692307692308</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E7">
-        <v>0.003846153846153846</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="F7">
-        <v>0.03461538461538462</v>
+        <v>0.03663003663003663</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1192307692307692</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.003846153846153846</v>
+        <v>0.003663003663003663</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1769230769230769</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S7">
-        <v>0.4423076923076923</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1146881287726358</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01006036217303823</v>
+        <v>0.009578544061302681</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07847082494969819</v>
+        <v>0.08237547892720307</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08853118712273642</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01609657947686117</v>
+        <v>0.01532567049808429</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1670020120724346</v>
+        <v>0.1647509578544061</v>
       </c>
       <c r="R8">
-        <v>0.1207243460764588</v>
+        <v>0.1168582375478927</v>
       </c>
       <c r="S8">
-        <v>0.4044265593561368</v>
+        <v>0.4118773946360153</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1162790697674419</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02325581395348837</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05813953488372093</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06976744186046512</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02906976744186046</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1918604651162791</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="R9">
-        <v>0.1046511627906977</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="S9">
-        <v>0.4069767441860465</v>
+        <v>0.4175824175824176</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09734513274336283</v>
+        <v>0.1001494768310912</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01609010458567981</v>
+        <v>0.01868460388639761</v>
       </c>
       <c r="E10">
-        <v>0.0008045052292839903</v>
+        <v>0.0007473841554559044</v>
       </c>
       <c r="F10">
-        <v>0.07401448109412712</v>
+        <v>0.07324364723467862</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1263073209975865</v>
+        <v>0.1270553064275037</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02333065164923572</v>
+        <v>0.02167414050822123</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1922767497988737</v>
+        <v>0.1943198804185351</v>
       </c>
       <c r="R10">
-        <v>0.09814963797264682</v>
+        <v>0.09641255605381166</v>
       </c>
       <c r="S10">
-        <v>0.3716814159292036</v>
+        <v>0.3677130044843049</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1527777777777778</v>
+        <v>0.1465968586387434</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08333333333333333</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="L11">
-        <v>0.5944444444444444</v>
+        <v>0.5916230366492147</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.002777777777777778</v>
+        <v>0.005235602094240838</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7465437788018433</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1751152073732719</v>
+        <v>0.1774891774891775</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02764976958525346</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05069124423963134</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7758620689655172</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1896551724137931</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0330188679245283</v>
+        <v>0.03555555555555556</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2122641509433962</v>
+        <v>0.2088888888888889</v>
       </c>
       <c r="I15">
-        <v>0.02358490566037736</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.3584905660377358</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="K15">
-        <v>0.09433962264150944</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009433962264150943</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04716981132075472</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2216981132075472</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1230769230769231</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="I16">
-        <v>0.07179487179487179</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.4461538461538462</v>
+        <v>0.4619047619047619</v>
       </c>
       <c r="K16">
-        <v>0.1641025641025641</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N16">
-        <v>0.005128205128205128</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="O16">
-        <v>0.03589743589743589</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1230769230769231</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0136986301369863</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1963470319634703</v>
+        <v>0.1931330472103004</v>
       </c>
       <c r="I17">
-        <v>0.08447488584474885</v>
+        <v>0.07939914163090128</v>
       </c>
       <c r="J17">
-        <v>0.4223744292237443</v>
+        <v>0.4356223175965665</v>
       </c>
       <c r="K17">
-        <v>0.1118721461187215</v>
+        <v>0.1072961373390558</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0273972602739726</v>
+        <v>0.02789699570815451</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0639269406392694</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.07990867579908675</v>
+        <v>0.08369098712446352</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01659751037344398</v>
+        <v>0.015625</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1991701244813278</v>
+        <v>0.1875</v>
       </c>
       <c r="I18">
-        <v>0.07468879668049792</v>
+        <v>0.08203125</v>
       </c>
       <c r="J18">
-        <v>0.4439834024896265</v>
+        <v>0.44140625</v>
       </c>
       <c r="K18">
-        <v>0.1078838174273859</v>
+        <v>0.109375</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02074688796680498</v>
+        <v>0.02734375</v>
       </c>
       <c r="N18">
-        <v>0.004149377593360996</v>
+        <v>0.00390625</v>
       </c>
       <c r="O18">
-        <v>0.06639004149377593</v>
+        <v>0.06640625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06639004149377593</v>
+        <v>0.06640625</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01923076923076923</v>
+        <v>0.01878287002253944</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2355769230769231</v>
+        <v>0.2344102178812923</v>
       </c>
       <c r="I19">
-        <v>0.08253205128205128</v>
+        <v>0.0811419984973704</v>
       </c>
       <c r="J19">
-        <v>0.3349358974358974</v>
+        <v>0.33809166040571</v>
       </c>
       <c r="K19">
-        <v>0.1290064102564103</v>
+        <v>0.1292261457550714</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03044871794871795</v>
+        <v>0.02930127723516153</v>
       </c>
       <c r="N19">
-        <v>0.001602564102564103</v>
+        <v>0.001502629601803156</v>
       </c>
       <c r="O19">
-        <v>0.06490384615384616</v>
+        <v>0.067618332081142</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1017628205128205</v>
+        <v>0.09992486851990984</v>
       </c>
     </row>
   </sheetData>
